--- a/dog_data.xlsx
+++ b/dog_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEKNOJOES TEKNOTOOL\Desktop\projects\Data-Cleaning-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6721058C-2FC4-4321-AE8D-DA5A523A664A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38704E23-7B3E-4490-AA7C-ACA15DB953F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="5505" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="5910" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doggy daycare member list" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>Tiny</t>
   </si>
   <si>
-    <t>Cozzy</t>
-  </si>
-  <si>
     <t>Shelina</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Cozy</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -748,18 +748,18 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>

--- a/dog_data.xlsx
+++ b/dog_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEKNOJOES TEKNOTOOL\Desktop\projects\Data-Cleaning-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELEN PC\Documents\GitHub\Data-Cleaning-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38704E23-7B3E-4490-AA7C-ACA15DB953F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF9ECC4-9A09-45BF-BA14-954F926CDD13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="5910" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doggy daycare member list" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t xml:space="preserve">Age </t>
-  </si>
-  <si>
     <t>American Staffordshire Terrier</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Cozy</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -467,9 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -492,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,33 +504,30 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2">
-        <v>63</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -541,41 +536,38 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
       </c>
       <c r="E5">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -587,18 +579,18 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -610,18 +602,18 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -629,22 +621,19 @@
       <c r="D9">
         <v>58</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -656,21 +645,21 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -679,21 +668,21 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>40</v>
@@ -702,18 +691,18 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -725,18 +714,18 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -748,18 +737,18 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
